--- a/data/models/questions-skill-model3b_leak.xlsx
+++ b/data/models/questions-skill-model3b_leak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/bn-based-learning-networks-with-noisy-gates/data/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/CAT-unplugged/data/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9AA2ED-6E48-9544-9FDE-02A7C8C31023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94214C-DA44-F349-BB04-EBF2CFD91800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -102,12 +102,6 @@
     <t>copy</t>
   </si>
   <si>
-    <t>fillEmpty</t>
-  </si>
-  <si>
-    <t>paint square monochromatic</t>
-  </si>
-  <si>
     <t>Has the pupil solved the schema with 0D VSF?</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Has the pupil solved the schema with 2D V?</t>
-  </si>
-  <si>
-    <t>paintDot</t>
   </si>
   <si>
     <t>E1</t>
@@ -168,21 +159,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>paint row column monochromatic</t>
-  </si>
-  <si>
-    <t>paint diagonal monochromatic</t>
-  </si>
-  <si>
-    <t>paint L monochromatic</t>
-  </si>
-  <si>
-    <t>paint zigzag monochromatic</t>
-  </si>
-  <si>
-    <t>paint row column polychromatic</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -192,7 +168,31 @@
     <t>0D V</t>
   </si>
   <si>
-    <t>paint diagonal or zigzag polychromatic</t>
+    <t>paint_dot</t>
+  </si>
+  <si>
+    <t>fill_empty</t>
+  </si>
+  <si>
+    <t>paint_row_column_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_square_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_l_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_zigzag_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_row_column_polychromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_or_zigzag_polychromatic</t>
   </si>
 </sst>
 </file>
@@ -688,6 +688,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,15 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,15 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1059,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C237" sqref="C237"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,44 +1081,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:352" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="67" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="68"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:352" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="15"/>
@@ -1157,38 +1157,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:352" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="71"/>
+    <row r="3" spans="1:352" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="80"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="18" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="12" t="s">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>5</v>
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -1552,38 +1552,38 @@
       <c r="MN3" s="9"/>
     </row>
     <row r="4" spans="1:352" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="H4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="M4" t="s">
         <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>12</v>
@@ -1613,11 +1613,11 @@
         <v>19</v>
       </c>
       <c r="W4" s="63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:352" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79">
+      <c r="A5" s="70">
         <v>1</v>
       </c>
       <c r="B5" s="65">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C5" s="27" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D5" s="49">
         <v>0.75</v>
@@ -2018,13 +2018,13 @@
       <c r="MN5" s="5"/>
     </row>
     <row r="6" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="65">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D6" s="50">
         <v>0</v>
@@ -2088,13 +2088,13 @@
       </c>
     </row>
     <row r="7" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="65">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D7" s="50">
         <v>0</v>
@@ -2158,13 +2158,13 @@
       </c>
     </row>
     <row r="8" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="65">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D8" s="50">
         <v>0</v>
@@ -2228,13 +2228,13 @@
       </c>
     </row>
     <row r="9" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="65">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D9" s="50">
         <v>0</v>
@@ -2298,13 +2298,13 @@
       </c>
     </row>
     <row r="10" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="65">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D10" s="50">
         <v>0</v>
@@ -2368,13 +2368,13 @@
       </c>
     </row>
     <row r="11" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="65">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D11" s="50">
         <v>0</v>
@@ -2438,13 +2438,13 @@
       </c>
     </row>
     <row r="12" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="65">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D12" s="50">
         <v>0</v>
@@ -2508,13 +2508,13 @@
       </c>
     </row>
     <row r="13" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="65">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D13" s="50">
         <v>0</v>
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="14" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="65">
         <v>10</v>
       </c>
@@ -2648,12 +2648,12 @@
       </c>
     </row>
     <row r="15" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="65">
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="50">
         <v>0.75</v>
@@ -2717,12 +2717,12 @@
       </c>
     </row>
     <row r="16" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="65">
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="50">
         <v>0.7</v>
@@ -2786,12 +2786,12 @@
       </c>
     </row>
     <row r="17" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="65">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="50">
         <v>0.65</v>
@@ -2855,12 +2855,12 @@
       </c>
     </row>
     <row r="18" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="65">
         <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="50">
         <v>0.7</v>
@@ -2924,12 +2924,12 @@
       </c>
     </row>
     <row r="19" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="65">
         <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="50">
         <v>0.65</v>
@@ -2993,12 +2993,12 @@
       </c>
     </row>
     <row r="20" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="65">
         <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="50">
         <v>0.6</v>
@@ -3062,12 +3062,12 @@
       </c>
     </row>
     <row r="21" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="65">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="50">
         <v>0.65</v>
@@ -3131,12 +3131,12 @@
       </c>
     </row>
     <row r="22" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="65">
         <v>18</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="50">
         <v>0.6</v>
@@ -3200,12 +3200,12 @@
       </c>
     </row>
     <row r="23" spans="1:352" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="66">
         <v>19</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="51">
         <v>0.55000000000000004</v>
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="24" spans="1:352" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80">
+      <c r="A24" s="71">
         <v>2</v>
       </c>
       <c r="B24" s="65">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D24" s="49">
         <v>0.75</v>
@@ -3670,13 +3670,13 @@
       <c r="MN24" s="5"/>
     </row>
     <row r="25" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="65">
         <v>2</v>
       </c>
       <c r="C25" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D25" s="50">
         <v>0</v>
@@ -3740,13 +3740,13 @@
       </c>
     </row>
     <row r="26" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="65">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D26" s="50">
         <v>0</v>
@@ -3810,13 +3810,13 @@
       </c>
     </row>
     <row r="27" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="65">
         <v>4</v>
       </c>
       <c r="C27" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D27" s="50">
         <v>0</v>
@@ -3880,13 +3880,13 @@
       </c>
     </row>
     <row r="28" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="65">
         <v>5</v>
       </c>
       <c r="C28" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D28" s="50">
         <v>0</v>
@@ -3950,13 +3950,13 @@
       </c>
     </row>
     <row r="29" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="65">
         <v>6</v>
       </c>
       <c r="C29" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D29" s="50">
         <v>0</v>
@@ -4020,13 +4020,13 @@
       </c>
     </row>
     <row r="30" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="65">
         <v>7</v>
       </c>
       <c r="C30" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D30" s="50">
         <v>0</v>
@@ -4090,13 +4090,13 @@
       </c>
     </row>
     <row r="31" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="80"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="65">
         <v>8</v>
       </c>
       <c r="C31" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D31" s="50">
         <v>0</v>
@@ -4160,13 +4160,13 @@
       </c>
     </row>
     <row r="32" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="80"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="65">
         <v>9</v>
       </c>
       <c r="C32" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D32" s="50">
         <v>0</v>
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="65">
         <v>10</v>
       </c>
@@ -4300,12 +4300,12 @@
       </c>
     </row>
     <row r="34" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="65">
         <v>11</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="50">
         <v>0.75</v>
@@ -4369,12 +4369,12 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="65">
         <v>12</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="50">
         <v>0.7</v>
@@ -4438,12 +4438,12 @@
       </c>
     </row>
     <row r="36" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="65">
         <v>13</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="50">
         <v>0.65</v>
@@ -4507,12 +4507,12 @@
       </c>
     </row>
     <row r="37" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="65">
         <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="50">
         <v>0.7</v>
@@ -4576,12 +4576,12 @@
       </c>
     </row>
     <row r="38" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="65">
         <v>15</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="50">
         <v>0.65</v>
@@ -4645,12 +4645,12 @@
       </c>
     </row>
     <row r="39" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="65">
         <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="50">
         <v>0.6</v>
@@ -4714,12 +4714,12 @@
       </c>
     </row>
     <row r="40" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="65">
         <v>17</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="50">
         <v>0.65</v>
@@ -4783,12 +4783,12 @@
       </c>
     </row>
     <row r="41" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="65">
         <v>18</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="50">
         <v>0.6</v>
@@ -4852,12 +4852,12 @@
       </c>
     </row>
     <row r="42" spans="1:23" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="66">
         <v>19</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="51">
         <v>0.55000000000000004</v>
@@ -4921,7 +4921,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="79">
+      <c r="A43" s="70">
         <v>3</v>
       </c>
       <c r="B43" s="65">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C43" s="27" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D43" s="49">
         <v>0.7</v>
@@ -4993,13 +4993,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="65">
         <v>2</v>
       </c>
       <c r="C44" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D44" s="50">
         <v>0</v>
@@ -5063,13 +5063,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="65">
         <v>3</v>
       </c>
       <c r="C45" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D45" s="50">
         <v>0</v>
@@ -5133,13 +5133,13 @@
       </c>
     </row>
     <row r="46" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="65">
         <v>4</v>
       </c>
       <c r="C46" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D46" s="50">
         <v>0</v>
@@ -5203,13 +5203,13 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="65">
         <v>5</v>
       </c>
       <c r="C47" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D47" s="50">
         <v>0</v>
@@ -5273,13 +5273,13 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="65">
         <v>6</v>
       </c>
       <c r="C48" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D48" s="50">
         <v>0</v>
@@ -5343,13 +5343,13 @@
       </c>
     </row>
     <row r="49" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="65">
         <v>7</v>
       </c>
       <c r="C49" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D49" s="50">
         <v>0</v>
@@ -5413,13 +5413,13 @@
       </c>
     </row>
     <row r="50" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="65">
         <v>8</v>
       </c>
       <c r="C50" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D50" s="50">
         <v>0</v>
@@ -5483,13 +5483,13 @@
       </c>
     </row>
     <row r="51" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="65">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D51" s="50">
         <v>0</v>
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="52" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="65">
         <v>10</v>
       </c>
@@ -5623,12 +5623,12 @@
       </c>
     </row>
     <row r="53" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="65">
         <v>11</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="50">
         <v>0.7</v>
@@ -5692,12 +5692,12 @@
       </c>
     </row>
     <row r="54" spans="1:352" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="65">
         <v>12</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="50">
         <v>0.65</v>
@@ -5761,12 +5761,12 @@
       </c>
     </row>
     <row r="55" spans="1:352" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="65">
         <v>13</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="50">
         <v>0.6</v>
@@ -6159,12 +6159,12 @@
       <c r="MN55" s="5"/>
     </row>
     <row r="56" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="65">
         <v>14</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="50">
         <v>0.65</v>
@@ -6228,12 +6228,12 @@
       </c>
     </row>
     <row r="57" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="65">
         <v>15</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="50">
         <v>0.6</v>
@@ -6297,12 +6297,12 @@
       </c>
     </row>
     <row r="58" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="65">
         <v>16</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="50">
         <v>0.55000000000000004</v>
@@ -6366,12 +6366,12 @@
       </c>
     </row>
     <row r="59" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="65">
         <v>17</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="50">
         <v>0.6</v>
@@ -6435,12 +6435,12 @@
       </c>
     </row>
     <row r="60" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="65">
         <v>18</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="50">
         <v>0.55000000000000004</v>
@@ -6504,12 +6504,12 @@
       </c>
     </row>
     <row r="61" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="66">
         <v>19</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="51">
         <v>0.5</v>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="62" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A62" s="80">
+      <c r="A62" s="71">
         <v>4</v>
       </c>
       <c r="B62" s="65">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D62" s="49">
         <v>0.7</v>
@@ -6645,13 +6645,13 @@
       </c>
     </row>
     <row r="63" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A63" s="80"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="65">
         <v>2</v>
       </c>
       <c r="C63" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D63" s="50">
         <v>0</v>
@@ -6715,13 +6715,13 @@
       </c>
     </row>
     <row r="64" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A64" s="80"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="65">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D64" s="50">
         <v>0</v>
@@ -6785,13 +6785,13 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="80"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="65">
         <v>4</v>
       </c>
       <c r="C65" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D65" s="50">
         <v>0</v>
@@ -6855,13 +6855,13 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="80"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="65">
         <v>5</v>
       </c>
       <c r="C66" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D66" s="50">
         <v>0</v>
@@ -6925,13 +6925,13 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="80"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="65">
         <v>6</v>
       </c>
       <c r="C67" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D67" s="50">
         <v>0</v>
@@ -6995,13 +6995,13 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="80"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="65">
         <v>7</v>
       </c>
       <c r="C68" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D68" s="50">
         <v>0</v>
@@ -7065,13 +7065,13 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="80"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="65">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D69" s="50">
         <v>0</v>
@@ -7135,13 +7135,13 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="80"/>
+      <c r="A70" s="71"/>
       <c r="B70" s="65">
         <v>9</v>
       </c>
       <c r="C70" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D70" s="50">
         <v>0</v>
@@ -7205,7 +7205,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="80"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="65">
         <v>10</v>
       </c>
@@ -7275,12 +7275,12 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="80"/>
+      <c r="A72" s="71"/>
       <c r="B72" s="65">
         <v>11</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="50">
         <v>0.7</v>
@@ -7344,12 +7344,12 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="80"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="65">
         <v>12</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="50">
         <v>0.65</v>
@@ -7413,12 +7413,12 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="80"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="65">
         <v>13</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="50">
         <v>0.6</v>
@@ -7482,12 +7482,12 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="80"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="65">
         <v>14</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D75" s="50">
         <v>0.65</v>
@@ -7551,12 +7551,12 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="80"/>
+      <c r="A76" s="71"/>
       <c r="B76" s="65">
         <v>15</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D76" s="50">
         <v>0.6</v>
@@ -7620,12 +7620,12 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="80"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="65">
         <v>16</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="50">
         <v>0.55000000000000004</v>
@@ -7689,12 +7689,12 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="80"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="65">
         <v>17</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" s="50">
         <v>0.6</v>
@@ -7758,12 +7758,12 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="80"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="65">
         <v>18</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="50">
         <v>0.55000000000000004</v>
@@ -7827,12 +7827,12 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="66">
         <v>19</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" s="51">
         <v>0.5</v>
@@ -7896,7 +7896,7 @@
       </c>
     </row>
     <row r="81" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A81" s="80">
+      <c r="A81" s="71">
         <v>5</v>
       </c>
       <c r="B81" s="65">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D81" s="49">
         <v>0.7</v>
@@ -7968,13 +7968,13 @@
       </c>
     </row>
     <row r="82" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A82" s="80"/>
+      <c r="A82" s="71"/>
       <c r="B82" s="65">
         <v>2</v>
       </c>
       <c r="C82" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D82" s="50">
         <v>0</v>
@@ -8038,13 +8038,13 @@
       </c>
     </row>
     <row r="83" spans="1:352" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="80"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="65">
         <v>3</v>
       </c>
       <c r="C83" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D83" s="50">
         <v>0</v>
@@ -8437,13 +8437,13 @@
       <c r="MN83" s="5"/>
     </row>
     <row r="84" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A84" s="80"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="65">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D84" s="50">
         <v>0</v>
@@ -8507,13 +8507,13 @@
       </c>
     </row>
     <row r="85" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A85" s="80"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="65">
         <v>5</v>
       </c>
       <c r="C85" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D85" s="50">
         <v>0</v>
@@ -8577,13 +8577,13 @@
       </c>
     </row>
     <row r="86" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A86" s="80"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="65">
         <v>6</v>
       </c>
       <c r="C86" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D86" s="50">
         <v>0</v>
@@ -8647,13 +8647,13 @@
       </c>
     </row>
     <row r="87" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A87" s="80"/>
+      <c r="A87" s="71"/>
       <c r="B87" s="65">
         <v>7</v>
       </c>
       <c r="C87" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D87" s="50">
         <v>0</v>
@@ -8717,13 +8717,13 @@
       </c>
     </row>
     <row r="88" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A88" s="80"/>
+      <c r="A88" s="71"/>
       <c r="B88" s="65">
         <v>8</v>
       </c>
       <c r="C88" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D88" s="50">
         <v>0</v>
@@ -8787,13 +8787,13 @@
       </c>
     </row>
     <row r="89" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A89" s="80"/>
+      <c r="A89" s="71"/>
       <c r="B89" s="65">
         <v>9</v>
       </c>
       <c r="C89" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D89" s="50">
         <v>0</v>
@@ -8857,7 +8857,7 @@
       </c>
     </row>
     <row r="90" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A90" s="80"/>
+      <c r="A90" s="71"/>
       <c r="B90" s="65">
         <v>10</v>
       </c>
@@ -8927,12 +8927,12 @@
       </c>
     </row>
     <row r="91" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A91" s="80"/>
+      <c r="A91" s="71"/>
       <c r="B91" s="65">
         <v>11</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D91" s="50">
         <v>0.7</v>
@@ -8996,12 +8996,12 @@
       </c>
     </row>
     <row r="92" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A92" s="80"/>
+      <c r="A92" s="71"/>
       <c r="B92" s="65">
         <v>12</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" s="50">
         <v>0.65</v>
@@ -9065,12 +9065,12 @@
       </c>
     </row>
     <row r="93" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A93" s="80"/>
+      <c r="A93" s="71"/>
       <c r="B93" s="65">
         <v>13</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D93" s="50">
         <v>0.6</v>
@@ -9134,12 +9134,12 @@
       </c>
     </row>
     <row r="94" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A94" s="80"/>
+      <c r="A94" s="71"/>
       <c r="B94" s="65">
         <v>14</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="50">
         <v>0.65</v>
@@ -9203,12 +9203,12 @@
       </c>
     </row>
     <row r="95" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A95" s="80"/>
+      <c r="A95" s="71"/>
       <c r="B95" s="65">
         <v>15</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95" s="50">
         <v>0.6</v>
@@ -9272,12 +9272,12 @@
       </c>
     </row>
     <row r="96" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A96" s="80"/>
+      <c r="A96" s="71"/>
       <c r="B96" s="65">
         <v>16</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="50">
         <v>0.55000000000000004</v>
@@ -9341,12 +9341,12 @@
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A97" s="80"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="65">
         <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" s="50">
         <v>0.6</v>
@@ -9410,12 +9410,12 @@
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="80"/>
+      <c r="A98" s="71"/>
       <c r="B98" s="65">
         <v>18</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="50">
         <v>0.55000000000000004</v>
@@ -9479,12 +9479,12 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="66">
         <v>19</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="51">
         <v>0.5</v>
@@ -9548,7 +9548,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="80">
+      <c r="A100" s="71">
         <v>6</v>
       </c>
       <c r="B100" s="65">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D100" s="49">
         <v>0.7</v>
@@ -9620,13 +9620,13 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="80"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="65">
         <v>2</v>
       </c>
       <c r="C101" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D101" s="50">
         <v>0</v>
@@ -9690,13 +9690,13 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="80"/>
+      <c r="A102" s="71"/>
       <c r="B102" s="65">
         <v>3</v>
       </c>
       <c r="C102" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D102" s="50">
         <v>0</v>
@@ -9760,13 +9760,13 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="80"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="65">
         <v>4</v>
       </c>
       <c r="C103" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D103" s="50">
         <v>0</v>
@@ -9830,13 +9830,13 @@
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="80"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="65">
         <v>5</v>
       </c>
       <c r="C104" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D104" s="50">
         <v>0</v>
@@ -9900,13 +9900,13 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="80"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="65">
         <v>6</v>
       </c>
       <c r="C105" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D105" s="50">
         <v>0</v>
@@ -9970,13 +9970,13 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="80"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="65">
         <v>7</v>
       </c>
       <c r="C106" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D106" s="50">
         <v>0</v>
@@ -10040,13 +10040,13 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="80"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="65">
         <v>8</v>
       </c>
       <c r="C107" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D107" s="50">
         <v>0</v>
@@ -10110,13 +10110,13 @@
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A108" s="80"/>
+      <c r="A108" s="71"/>
       <c r="B108" s="65">
         <v>9</v>
       </c>
       <c r="C108" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D108" s="50">
         <v>0</v>
@@ -10180,7 +10180,7 @@
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A109" s="80"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="65">
         <v>10</v>
       </c>
@@ -10250,12 +10250,12 @@
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" s="80"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="65">
         <v>11</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D110" s="50">
         <v>0.7</v>
@@ -10319,12 +10319,12 @@
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A111" s="80"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="65">
         <v>12</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D111" s="50">
         <v>0.65</v>
@@ -10388,12 +10388,12 @@
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A112" s="80"/>
+      <c r="A112" s="71"/>
       <c r="B112" s="65">
         <v>13</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="50">
         <v>0.6</v>
@@ -10457,12 +10457,12 @@
       </c>
     </row>
     <row r="113" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A113" s="80"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="65">
         <v>14</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D113" s="50">
         <v>0.65</v>
@@ -10526,12 +10526,12 @@
       </c>
     </row>
     <row r="114" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A114" s="80"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="65">
         <v>15</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D114" s="50">
         <v>0.6</v>
@@ -10595,12 +10595,12 @@
       </c>
     </row>
     <row r="115" spans="1:352" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="80"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="65">
         <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="50">
         <v>0.55000000000000004</v>
@@ -10993,12 +10993,12 @@
       <c r="MN115" s="5"/>
     </row>
     <row r="116" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A116" s="80"/>
+      <c r="A116" s="71"/>
       <c r="B116" s="65">
         <v>17</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="50">
         <v>0.6</v>
@@ -11062,12 +11062,12 @@
       </c>
     </row>
     <row r="117" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A117" s="80"/>
+      <c r="A117" s="71"/>
       <c r="B117" s="65">
         <v>18</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" s="50">
         <v>0.55000000000000004</v>
@@ -11131,12 +11131,12 @@
       </c>
     </row>
     <row r="118" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="81"/>
+      <c r="A118" s="72"/>
       <c r="B118" s="66">
         <v>19</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D118" s="51">
         <v>0.5</v>
@@ -11200,7 +11200,7 @@
       </c>
     </row>
     <row r="119" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A119" s="80">
+      <c r="A119" s="71">
         <v>7</v>
       </c>
       <c r="B119" s="65">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="C119" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D119" s="49">
         <v>0.8</v>
@@ -11272,13 +11272,13 @@
       </c>
     </row>
     <row r="120" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A120" s="80"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="65">
         <v>2</v>
       </c>
       <c r="C120" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D120" s="50">
         <v>0</v>
@@ -11342,13 +11342,13 @@
       </c>
     </row>
     <row r="121" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A121" s="80"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="65">
         <v>3</v>
       </c>
       <c r="C121" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D121" s="50">
         <v>0</v>
@@ -11412,13 +11412,13 @@
       </c>
     </row>
     <row r="122" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A122" s="80"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="65">
         <v>4</v>
       </c>
       <c r="C122" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D122" s="50">
         <v>0</v>
@@ -11482,13 +11482,13 @@
       </c>
     </row>
     <row r="123" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A123" s="80"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="65">
         <v>5</v>
       </c>
       <c r="C123" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D123" s="50">
         <v>0</v>
@@ -11552,13 +11552,13 @@
       </c>
     </row>
     <row r="124" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A124" s="80"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="65">
         <v>6</v>
       </c>
       <c r="C124" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D124" s="50">
         <v>0</v>
@@ -11622,13 +11622,13 @@
       </c>
     </row>
     <row r="125" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A125" s="80"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="65">
         <v>7</v>
       </c>
       <c r="C125" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D125" s="50">
         <v>0</v>
@@ -11692,13 +11692,13 @@
       </c>
     </row>
     <row r="126" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A126" s="80"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="65">
         <v>8</v>
       </c>
       <c r="C126" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D126" s="50">
         <v>0</v>
@@ -11762,13 +11762,13 @@
       </c>
     </row>
     <row r="127" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A127" s="80"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="65">
         <v>9</v>
       </c>
       <c r="C127" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D127" s="50">
         <v>0</v>
@@ -11832,7 +11832,7 @@
       </c>
     </row>
     <row r="128" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A128" s="80"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="65">
         <v>10</v>
       </c>
@@ -11902,12 +11902,12 @@
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A129" s="80"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="65">
         <v>11</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D129" s="50">
         <v>0.8</v>
@@ -11971,12 +11971,12 @@
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A130" s="80"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="65">
         <v>12</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D130" s="50">
         <v>0.75</v>
@@ -12040,12 +12040,12 @@
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A131" s="80"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="65">
         <v>13</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D131" s="50">
         <v>0.7</v>
@@ -12109,12 +12109,12 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A132" s="80"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="65">
         <v>14</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D132" s="50">
         <v>0.75</v>
@@ -12178,12 +12178,12 @@
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A133" s="80"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="65">
         <v>15</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133" s="50">
         <v>0.7</v>
@@ -12247,12 +12247,12 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A134" s="80"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="65">
         <v>16</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="50">
         <v>0.65</v>
@@ -12316,12 +12316,12 @@
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A135" s="80"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="65">
         <v>17</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="50">
         <v>0.7</v>
@@ -12385,12 +12385,12 @@
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A136" s="80"/>
+      <c r="A136" s="71"/>
       <c r="B136" s="65">
         <v>18</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="50">
         <v>0.65</v>
@@ -12454,12 +12454,12 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="81"/>
+      <c r="A137" s="72"/>
       <c r="B137" s="66">
         <v>19</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D137" s="51">
         <v>0.6</v>
@@ -12523,7 +12523,7 @@
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A138" s="80">
+      <c r="A138" s="71">
         <v>8</v>
       </c>
       <c r="B138" s="65">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="C138" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D138" s="49">
         <v>0.8</v>
@@ -12595,13 +12595,13 @@
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A139" s="80"/>
+      <c r="A139" s="71"/>
       <c r="B139" s="65">
         <v>2</v>
       </c>
       <c r="C139" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D139" s="50">
         <v>0</v>
@@ -12665,13 +12665,13 @@
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A140" s="80"/>
+      <c r="A140" s="71"/>
       <c r="B140" s="65">
         <v>3</v>
       </c>
       <c r="C140" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D140" s="50">
         <v>0</v>
@@ -12735,13 +12735,13 @@
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A141" s="80"/>
+      <c r="A141" s="71"/>
       <c r="B141" s="65">
         <v>4</v>
       </c>
       <c r="C141" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D141" s="50">
         <v>0</v>
@@ -12805,13 +12805,13 @@
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A142" s="80"/>
+      <c r="A142" s="71"/>
       <c r="B142" s="65">
         <v>5</v>
       </c>
       <c r="C142" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D142" s="50">
         <v>0</v>
@@ -12875,13 +12875,13 @@
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A143" s="80"/>
+      <c r="A143" s="71"/>
       <c r="B143" s="65">
         <v>6</v>
       </c>
       <c r="C143" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D143" s="50">
         <v>0</v>
@@ -12945,13 +12945,13 @@
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A144" s="80"/>
+      <c r="A144" s="71"/>
       <c r="B144" s="65">
         <v>7</v>
       </c>
       <c r="C144" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D144" s="50">
         <v>0</v>
@@ -13015,13 +13015,13 @@
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A145" s="80"/>
+      <c r="A145" s="71"/>
       <c r="B145" s="65">
         <v>8</v>
       </c>
       <c r="C145" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D145" s="50">
         <v>0</v>
@@ -13085,13 +13085,13 @@
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A146" s="80"/>
+      <c r="A146" s="71"/>
       <c r="B146" s="65">
         <v>9</v>
       </c>
       <c r="C146" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D146" s="50">
         <v>0</v>
@@ -13155,7 +13155,7 @@
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A147" s="80"/>
+      <c r="A147" s="71"/>
       <c r="B147" s="65">
         <v>10</v>
       </c>
@@ -13225,12 +13225,12 @@
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A148" s="80"/>
+      <c r="A148" s="71"/>
       <c r="B148" s="65">
         <v>11</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D148" s="50">
         <v>0.8</v>
@@ -13294,12 +13294,12 @@
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A149" s="80"/>
+      <c r="A149" s="71"/>
       <c r="B149" s="65">
         <v>12</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D149" s="50">
         <v>0.75</v>
@@ -13363,12 +13363,12 @@
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A150" s="80"/>
+      <c r="A150" s="71"/>
       <c r="B150" s="65">
         <v>13</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D150" s="50">
         <v>0.7</v>
@@ -13432,12 +13432,12 @@
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A151" s="80"/>
+      <c r="A151" s="71"/>
       <c r="B151" s="65">
         <v>14</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D151" s="50">
         <v>0.75</v>
@@ -13501,12 +13501,12 @@
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A152" s="80"/>
+      <c r="A152" s="71"/>
       <c r="B152" s="65">
         <v>15</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D152" s="50">
         <v>0.7</v>
@@ -13570,12 +13570,12 @@
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A153" s="80"/>
+      <c r="A153" s="71"/>
       <c r="B153" s="65">
         <v>16</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="50">
         <v>0.65</v>
@@ -13639,12 +13639,12 @@
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A154" s="80"/>
+      <c r="A154" s="71"/>
       <c r="B154" s="65">
         <v>17</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="50">
         <v>0.7</v>
@@ -13708,12 +13708,12 @@
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A155" s="80"/>
+      <c r="A155" s="71"/>
       <c r="B155" s="65">
         <v>18</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D155" s="50">
         <v>0.65</v>
@@ -13777,12 +13777,12 @@
       </c>
     </row>
     <row r="156" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="81"/>
+      <c r="A156" s="72"/>
       <c r="B156" s="66">
         <v>19</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D156" s="51">
         <v>0.6</v>
@@ -13846,7 +13846,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A157" s="80">
+      <c r="A157" s="71">
         <v>9</v>
       </c>
       <c r="B157" s="65">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="C157" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D157" s="49">
         <v>0.8</v>
@@ -13918,13 +13918,13 @@
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A158" s="80"/>
+      <c r="A158" s="71"/>
       <c r="B158" s="65">
         <v>2</v>
       </c>
       <c r="C158" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D158" s="50">
         <v>0</v>
@@ -13988,13 +13988,13 @@
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A159" s="80"/>
+      <c r="A159" s="71"/>
       <c r="B159" s="65">
         <v>3</v>
       </c>
       <c r="C159" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D159" s="50">
         <v>0</v>
@@ -14058,13 +14058,13 @@
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A160" s="80"/>
+      <c r="A160" s="71"/>
       <c r="B160" s="65">
         <v>4</v>
       </c>
       <c r="C160" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D160" s="50">
         <v>0</v>
@@ -14128,13 +14128,13 @@
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A161" s="80"/>
+      <c r="A161" s="71"/>
       <c r="B161" s="65">
         <v>5</v>
       </c>
       <c r="C161" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D161" s="50">
         <v>0</v>
@@ -14198,13 +14198,13 @@
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A162" s="80"/>
+      <c r="A162" s="71"/>
       <c r="B162" s="65">
         <v>6</v>
       </c>
       <c r="C162" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D162" s="50">
         <v>0</v>
@@ -14268,13 +14268,13 @@
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A163" s="80"/>
+      <c r="A163" s="71"/>
       <c r="B163" s="65">
         <v>7</v>
       </c>
       <c r="C163" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D163" s="50">
         <v>0</v>
@@ -14338,13 +14338,13 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A164" s="80"/>
+      <c r="A164" s="71"/>
       <c r="B164" s="65">
         <v>8</v>
       </c>
       <c r="C164" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D164" s="50">
         <v>0</v>
@@ -14408,13 +14408,13 @@
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A165" s="80"/>
+      <c r="A165" s="71"/>
       <c r="B165" s="65">
         <v>9</v>
       </c>
       <c r="C165" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D165" s="50">
         <v>0</v>
@@ -14478,7 +14478,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A166" s="80"/>
+      <c r="A166" s="71"/>
       <c r="B166" s="65">
         <v>10</v>
       </c>
@@ -14548,12 +14548,12 @@
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A167" s="80"/>
+      <c r="A167" s="71"/>
       <c r="B167" s="65">
         <v>11</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D167" s="50">
         <v>0.8</v>
@@ -14617,12 +14617,12 @@
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A168" s="80"/>
+      <c r="A168" s="71"/>
       <c r="B168" s="65">
         <v>12</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D168" s="50">
         <v>0.75</v>
@@ -14686,12 +14686,12 @@
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A169" s="80"/>
+      <c r="A169" s="71"/>
       <c r="B169" s="65">
         <v>13</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D169" s="50">
         <v>0.7</v>
@@ -14755,12 +14755,12 @@
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A170" s="80"/>
+      <c r="A170" s="71"/>
       <c r="B170" s="65">
         <v>14</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D170" s="50">
         <v>0.75</v>
@@ -14824,12 +14824,12 @@
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A171" s="80"/>
+      <c r="A171" s="71"/>
       <c r="B171" s="65">
         <v>15</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D171" s="50">
         <v>0.7</v>
@@ -14893,12 +14893,12 @@
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A172" s="80"/>
+      <c r="A172" s="71"/>
       <c r="B172" s="65">
         <v>16</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="50">
         <v>0.65</v>
@@ -14962,12 +14962,12 @@
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A173" s="80"/>
+      <c r="A173" s="71"/>
       <c r="B173" s="65">
         <v>17</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D173" s="50">
         <v>0.7</v>
@@ -15031,12 +15031,12 @@
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A174" s="80"/>
+      <c r="A174" s="71"/>
       <c r="B174" s="65">
         <v>18</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D174" s="50">
         <v>0.65</v>
@@ -15100,12 +15100,12 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="81"/>
+      <c r="A175" s="72"/>
       <c r="B175" s="66">
         <v>19</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D175" s="51">
         <v>0.6</v>
@@ -15169,7 +15169,7 @@
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A176" s="80">
+      <c r="A176" s="71">
         <v>10</v>
       </c>
       <c r="B176" s="65">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="C176" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D176" s="49">
         <v>0.75</v>
@@ -15241,13 +15241,13 @@
       </c>
     </row>
     <row r="177" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A177" s="80"/>
+      <c r="A177" s="71"/>
       <c r="B177" s="65">
         <v>2</v>
       </c>
       <c r="C177" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D177" s="50">
         <v>0</v>
@@ -15311,13 +15311,13 @@
       </c>
     </row>
     <row r="178" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A178" s="80"/>
+      <c r="A178" s="71"/>
       <c r="B178" s="65">
         <v>3</v>
       </c>
       <c r="C178" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D178" s="50">
         <v>0</v>
@@ -15381,13 +15381,13 @@
       </c>
     </row>
     <row r="179" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A179" s="80"/>
+      <c r="A179" s="71"/>
       <c r="B179" s="65">
         <v>4</v>
       </c>
       <c r="C179" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D179" s="50">
         <v>0</v>
@@ -15451,13 +15451,13 @@
       </c>
     </row>
     <row r="180" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A180" s="80"/>
+      <c r="A180" s="71"/>
       <c r="B180" s="65">
         <v>5</v>
       </c>
       <c r="C180" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D180" s="50">
         <v>0</v>
@@ -15521,13 +15521,13 @@
       </c>
     </row>
     <row r="181" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A181" s="80"/>
+      <c r="A181" s="71"/>
       <c r="B181" s="65">
         <v>6</v>
       </c>
       <c r="C181" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D181" s="50">
         <v>0</v>
@@ -15591,13 +15591,13 @@
       </c>
     </row>
     <row r="182" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A182" s="80"/>
+      <c r="A182" s="71"/>
       <c r="B182" s="65">
         <v>7</v>
       </c>
       <c r="C182" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D182" s="50">
         <v>0</v>
@@ -15661,13 +15661,13 @@
       </c>
     </row>
     <row r="183" spans="1:352" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="80"/>
+      <c r="A183" s="71"/>
       <c r="B183" s="65">
         <v>8</v>
       </c>
       <c r="C183" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D183" s="50">
         <v>0</v>
@@ -16060,13 +16060,13 @@
       <c r="MN183" s="5"/>
     </row>
     <row r="184" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A184" s="80"/>
+      <c r="A184" s="71"/>
       <c r="B184" s="65">
         <v>9</v>
       </c>
       <c r="C184" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D184" s="50">
         <v>0</v>
@@ -16130,7 +16130,7 @@
       </c>
     </row>
     <row r="185" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A185" s="80"/>
+      <c r="A185" s="71"/>
       <c r="B185" s="65">
         <v>10</v>
       </c>
@@ -16200,12 +16200,12 @@
       </c>
     </row>
     <row r="186" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A186" s="80"/>
+      <c r="A186" s="71"/>
       <c r="B186" s="65">
         <v>11</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D186" s="50">
         <v>0.75</v>
@@ -16269,12 +16269,12 @@
       </c>
     </row>
     <row r="187" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A187" s="80"/>
+      <c r="A187" s="71"/>
       <c r="B187" s="65">
         <v>12</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" s="50">
         <v>0.7</v>
@@ -16338,12 +16338,12 @@
       </c>
     </row>
     <row r="188" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A188" s="80"/>
+      <c r="A188" s="71"/>
       <c r="B188" s="65">
         <v>13</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D188" s="50">
         <v>0.65</v>
@@ -16407,12 +16407,12 @@
       </c>
     </row>
     <row r="189" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A189" s="80"/>
+      <c r="A189" s="71"/>
       <c r="B189" s="65">
         <v>14</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D189" s="50">
         <v>0.7</v>
@@ -16476,12 +16476,12 @@
       </c>
     </row>
     <row r="190" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A190" s="80"/>
+      <c r="A190" s="71"/>
       <c r="B190" s="65">
         <v>15</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D190" s="50">
         <v>0.65</v>
@@ -16545,12 +16545,12 @@
       </c>
     </row>
     <row r="191" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A191" s="80"/>
+      <c r="A191" s="71"/>
       <c r="B191" s="65">
         <v>16</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="50">
         <v>0.6</v>
@@ -16614,12 +16614,12 @@
       </c>
     </row>
     <row r="192" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A192" s="80"/>
+      <c r="A192" s="71"/>
       <c r="B192" s="65">
         <v>17</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D192" s="50">
         <v>0.65</v>
@@ -16683,12 +16683,12 @@
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A193" s="80"/>
+      <c r="A193" s="71"/>
       <c r="B193" s="65">
         <v>18</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D193" s="50">
         <v>0.6</v>
@@ -16752,12 +16752,12 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="81"/>
+      <c r="A194" s="72"/>
       <c r="B194" s="66">
         <v>19</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D194" s="51">
         <v>0.55000000000000004</v>
@@ -16821,7 +16821,7 @@
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A195" s="80">
+      <c r="A195" s="71">
         <v>11</v>
       </c>
       <c r="B195" s="65">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="C195" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D195" s="49">
         <v>0.75</v>
@@ -16893,13 +16893,13 @@
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A196" s="80"/>
+      <c r="A196" s="71"/>
       <c r="B196" s="65">
         <v>2</v>
       </c>
       <c r="C196" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D196" s="50">
         <v>0</v>
@@ -16963,13 +16963,13 @@
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A197" s="80"/>
+      <c r="A197" s="71"/>
       <c r="B197" s="65">
         <v>3</v>
       </c>
       <c r="C197" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D197" s="50">
         <v>0</v>
@@ -17033,13 +17033,13 @@
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A198" s="80"/>
+      <c r="A198" s="71"/>
       <c r="B198" s="65">
         <v>4</v>
       </c>
       <c r="C198" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D198" s="50">
         <v>0</v>
@@ -17103,13 +17103,13 @@
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A199" s="80"/>
+      <c r="A199" s="71"/>
       <c r="B199" s="65">
         <v>5</v>
       </c>
       <c r="C199" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D199" s="50">
         <v>0</v>
@@ -17173,13 +17173,13 @@
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A200" s="80"/>
+      <c r="A200" s="71"/>
       <c r="B200" s="65">
         <v>6</v>
       </c>
       <c r="C200" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D200" s="50">
         <v>0</v>
@@ -17243,13 +17243,13 @@
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A201" s="80"/>
+      <c r="A201" s="71"/>
       <c r="B201" s="65">
         <v>7</v>
       </c>
       <c r="C201" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D201" s="50">
         <v>0</v>
@@ -17313,13 +17313,13 @@
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A202" s="80"/>
+      <c r="A202" s="71"/>
       <c r="B202" s="65">
         <v>8</v>
       </c>
       <c r="C202" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D202" s="50">
         <v>0</v>
@@ -17383,13 +17383,13 @@
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A203" s="80"/>
+      <c r="A203" s="71"/>
       <c r="B203" s="65">
         <v>9</v>
       </c>
       <c r="C203" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D203" s="50">
         <v>0</v>
@@ -17453,7 +17453,7 @@
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A204" s="80"/>
+      <c r="A204" s="71"/>
       <c r="B204" s="65">
         <v>10</v>
       </c>
@@ -17523,12 +17523,12 @@
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A205" s="80"/>
+      <c r="A205" s="71"/>
       <c r="B205" s="65">
         <v>11</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D205" s="50">
         <v>0.75</v>
@@ -17592,12 +17592,12 @@
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A206" s="80"/>
+      <c r="A206" s="71"/>
       <c r="B206" s="65">
         <v>12</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D206" s="50">
         <v>0.7</v>
@@ -17661,12 +17661,12 @@
       </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A207" s="80"/>
+      <c r="A207" s="71"/>
       <c r="B207" s="65">
         <v>13</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D207" s="50">
         <v>0.65</v>
@@ -17730,12 +17730,12 @@
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A208" s="80"/>
+      <c r="A208" s="71"/>
       <c r="B208" s="65">
         <v>14</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D208" s="50">
         <v>0.7</v>
@@ -17799,12 +17799,12 @@
       </c>
     </row>
     <row r="209" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A209" s="80"/>
+      <c r="A209" s="71"/>
       <c r="B209" s="65">
         <v>15</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D209" s="50">
         <v>0.65</v>
@@ -17868,12 +17868,12 @@
       </c>
     </row>
     <row r="210" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A210" s="80"/>
+      <c r="A210" s="71"/>
       <c r="B210" s="65">
         <v>16</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="50">
         <v>0.6</v>
@@ -17937,12 +17937,12 @@
       </c>
     </row>
     <row r="211" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A211" s="80"/>
+      <c r="A211" s="71"/>
       <c r="B211" s="65">
         <v>17</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D211" s="50">
         <v>0.65</v>
@@ -18006,12 +18006,12 @@
       </c>
     </row>
     <row r="212" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A212" s="80"/>
+      <c r="A212" s="71"/>
       <c r="B212" s="65">
         <v>18</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D212" s="50">
         <v>0.6</v>
@@ -18075,12 +18075,12 @@
       </c>
     </row>
     <row r="213" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="81"/>
+      <c r="A213" s="72"/>
       <c r="B213" s="66">
         <v>19</v>
       </c>
       <c r="C213" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D213" s="51">
         <v>0.55000000000000004</v>
@@ -18144,7 +18144,7 @@
       </c>
     </row>
     <row r="214" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A214" s="80">
+      <c r="A214" s="71">
         <v>12</v>
       </c>
       <c r="B214" s="65">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="C214" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D214" s="49">
         <v>0.75</v>
@@ -18216,13 +18216,13 @@
       </c>
     </row>
     <row r="215" spans="1:352" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="80"/>
+      <c r="A215" s="71"/>
       <c r="B215" s="65">
         <v>2</v>
       </c>
       <c r="C215" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D215" s="50">
         <v>0</v>
@@ -18615,13 +18615,13 @@
       <c r="MN215" s="5"/>
     </row>
     <row r="216" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A216" s="80"/>
+      <c r="A216" s="71"/>
       <c r="B216" s="65">
         <v>3</v>
       </c>
       <c r="C216" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D216" s="50">
         <v>0</v>
@@ -18685,13 +18685,13 @@
       </c>
     </row>
     <row r="217" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A217" s="80"/>
+      <c r="A217" s="71"/>
       <c r="B217" s="65">
         <v>4</v>
       </c>
       <c r="C217" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D217" s="50">
         <v>0</v>
@@ -18755,13 +18755,13 @@
       </c>
     </row>
     <row r="218" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A218" s="80"/>
+      <c r="A218" s="71"/>
       <c r="B218" s="65">
         <v>5</v>
       </c>
       <c r="C218" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D218" s="50">
         <v>0</v>
@@ -18825,13 +18825,13 @@
       </c>
     </row>
     <row r="219" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A219" s="80"/>
+      <c r="A219" s="71"/>
       <c r="B219" s="65">
         <v>6</v>
       </c>
       <c r="C219" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D219" s="50">
         <v>0</v>
@@ -18895,13 +18895,13 @@
       </c>
     </row>
     <row r="220" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A220" s="80"/>
+      <c r="A220" s="71"/>
       <c r="B220" s="65">
         <v>7</v>
       </c>
       <c r="C220" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D220" s="50">
         <v>0</v>
@@ -18965,13 +18965,13 @@
       </c>
     </row>
     <row r="221" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A221" s="80"/>
+      <c r="A221" s="71"/>
       <c r="B221" s="65">
         <v>8</v>
       </c>
       <c r="C221" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D221" s="50">
         <v>0</v>
@@ -19035,13 +19035,13 @@
       </c>
     </row>
     <row r="222" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A222" s="80"/>
+      <c r="A222" s="71"/>
       <c r="B222" s="65">
         <v>9</v>
       </c>
       <c r="C222" s="5" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D222" s="50">
         <v>0</v>
@@ -19105,7 +19105,7 @@
       </c>
     </row>
     <row r="223" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A223" s="80"/>
+      <c r="A223" s="71"/>
       <c r="B223" s="65">
         <v>10</v>
       </c>
@@ -19175,12 +19175,12 @@
       </c>
     </row>
     <row r="224" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A224" s="80"/>
+      <c r="A224" s="71"/>
       <c r="B224" s="65">
         <v>11</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" s="50">
         <v>0.75</v>
@@ -19244,12 +19244,12 @@
       </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A225" s="80"/>
+      <c r="A225" s="71"/>
       <c r="B225" s="65">
         <v>12</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D225" s="50">
         <v>0.7</v>
@@ -19313,12 +19313,12 @@
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A226" s="80"/>
+      <c r="A226" s="71"/>
       <c r="B226" s="65">
         <v>13</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D226" s="50">
         <v>0.65</v>
@@ -19382,12 +19382,12 @@
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A227" s="80"/>
+      <c r="A227" s="71"/>
       <c r="B227" s="65">
         <v>14</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D227" s="50">
         <v>0.7</v>
@@ -19451,12 +19451,12 @@
       </c>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A228" s="80"/>
+      <c r="A228" s="71"/>
       <c r="B228" s="65">
         <v>15</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D228" s="50">
         <v>0.65</v>
@@ -19520,12 +19520,12 @@
       </c>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A229" s="80"/>
+      <c r="A229" s="71"/>
       <c r="B229" s="65">
         <v>16</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D229" s="50">
         <v>0.6</v>
@@ -19589,12 +19589,12 @@
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A230" s="80"/>
+      <c r="A230" s="71"/>
       <c r="B230" s="65">
         <v>17</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D230" s="50">
         <v>0.65</v>
@@ -19658,12 +19658,12 @@
       </c>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A231" s="80"/>
+      <c r="A231" s="71"/>
       <c r="B231" s="65">
         <v>18</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D231" s="50">
         <v>0.6</v>
@@ -19727,12 +19727,12 @@
       </c>
     </row>
     <row r="232" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="81"/>
+      <c r="A232" s="72"/>
       <c r="B232" s="66">
         <v>19</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D232" s="51">
         <v>0.55000000000000004</v>
@@ -20426,149 +20426,155 @@
       <c r="A416" s="26"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="73">
+      <c r="A417" s="67">
         <v>21</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="74"/>
+      <c r="A418" s="68"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="74"/>
+      <c r="A419" s="68"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="74"/>
+      <c r="A420" s="68"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="74"/>
+      <c r="A421" s="68"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="74"/>
+      <c r="A422" s="68"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="74"/>
+      <c r="A423" s="68"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="74"/>
+      <c r="A424" s="68"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="74"/>
+      <c r="A425" s="68"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="74"/>
+      <c r="A426" s="68"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="74"/>
+      <c r="A427" s="68"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="74"/>
+      <c r="A428" s="68"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="74"/>
+      <c r="A429" s="68"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="74"/>
+      <c r="A430" s="68"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="74"/>
+      <c r="A431" s="68"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="74"/>
+      <c r="A432" s="68"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="74"/>
+      <c r="A433" s="68"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="74"/>
+      <c r="A434" s="68"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="74"/>
+      <c r="A435" s="68"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="74"/>
+      <c r="A436" s="68"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="74"/>
+      <c r="A437" s="68"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="74"/>
+      <c r="A438" s="68"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="75"/>
+      <c r="A439" s="69"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="73">
+      <c r="A440" s="67">
         <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="74"/>
+      <c r="A441" s="68"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="74"/>
+      <c r="A442" s="68"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="74"/>
+      <c r="A443" s="68"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="74"/>
+      <c r="A444" s="68"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="74"/>
+      <c r="A445" s="68"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="74"/>
+      <c r="A446" s="68"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="74"/>
+      <c r="A447" s="68"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="74"/>
+      <c r="A448" s="68"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="74"/>
+      <c r="A449" s="68"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="74"/>
+      <c r="A450" s="68"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="74"/>
+      <c r="A451" s="68"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="74"/>
+      <c r="A452" s="68"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="74"/>
+      <c r="A453" s="68"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="74"/>
+      <c r="A454" s="68"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="74"/>
+      <c r="A455" s="68"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="74"/>
+      <c r="A456" s="68"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="74"/>
+      <c r="A457" s="68"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="74"/>
+      <c r="A458" s="68"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="74"/>
+      <c r="A459" s="68"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="74"/>
+      <c r="A460" s="68"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="74"/>
+      <c r="A461" s="68"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="75"/>
+      <c r="A462" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="A417:A439"/>
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="A440:A462"/>
     <mergeCell ref="A5:A23"/>
     <mergeCell ref="A24:A42"/>
@@ -20582,12 +20588,6 @@
     <mergeCell ref="A176:A194"/>
     <mergeCell ref="A195:A213"/>
     <mergeCell ref="A214:A232"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="A417:A439"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <conditionalFormatting sqref="N72:V80">
     <cfRule type="colorScale" priority="3">
